--- a/data/trans_orig/P6702-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CC79085-17EA-4F46-9BF7-F1CE4BF8C47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5413C09-0F7A-4509-8064-D24CF65BE8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D5963B2-0913-43A2-A1FD-7611E6E43A6D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8B4675B-1040-4B29-87AE-AE76B3806FF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="512">
   <si>
     <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -76,1534 +76,1504 @@
     <t>17,34%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
   </si>
   <si>
     <t>35,14%</t>
   </si>
   <si>
-    <t>27,51%</t>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
   </si>
   <si>
     <t>43,38%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>15,93%</t>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
   </si>
   <si>
     <t>11,33%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
   </si>
   <si>
     <t>22,41%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>5,84%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,83%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +1985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6728F0D2-E75D-4EAA-8F74-3F1C836B3C7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15428D97-78C1-4AB3-8D66-B884D7F2DDE6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2465,10 +2435,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>257</v>
@@ -2477,13 +2447,13 @@
         <v>275637</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2468,13 @@
         <v>134898</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -2513,13 +2483,13 @@
         <v>95491</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -2528,13 +2498,13 @@
         <v>230389</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2519,13 @@
         <v>301674</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>181</v>
@@ -2564,13 +2534,13 @@
         <v>191061</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>473</v>
@@ -2579,13 +2549,13 @@
         <v>492735</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2570,13 @@
         <v>189830</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
@@ -2615,13 +2585,13 @@
         <v>115863</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -2630,13 +2600,13 @@
         <v>305694</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2621,13 @@
         <v>120011</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -2669,10 +2639,10 @@
         <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>169</v>
@@ -2681,13 +2651,13 @@
         <v>181742</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,7 +2713,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2755,13 +2725,13 @@
         <v>47659</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2770,13 +2740,13 @@
         <v>54160</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -2785,13 +2755,13 @@
         <v>101818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,13 +2776,13 @@
         <v>48439</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -2821,13 +2791,13 @@
         <v>29965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -2836,13 +2806,13 @@
         <v>78404</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2827,13 @@
         <v>114975</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -2872,13 +2842,13 @@
         <v>78501</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>171</v>
@@ -2887,13 +2857,13 @@
         <v>193476</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2878,13 @@
         <v>66108</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2923,7 +2893,7 @@
         <v>41148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>137</v>
@@ -2941,10 +2911,10 @@
         <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +2929,13 @@
         <v>39077</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2974,13 +2944,13 @@
         <v>29923</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>62</v>
@@ -2989,13 +2959,13 @@
         <v>69000</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3033,13 @@
         <v>247447</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>194</v>
@@ -3078,13 +3048,13 @@
         <v>211094</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>426</v>
@@ -3093,13 +3063,13 @@
         <v>458541</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3084,13 @@
         <v>212644</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>139</v>
@@ -3129,13 +3099,13 @@
         <v>150724</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>334</v>
@@ -3144,13 +3114,13 @@
         <v>363369</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3135,13 @@
         <v>483796</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>289</v>
@@ -3180,13 +3150,13 @@
         <v>309136</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>746</v>
@@ -3195,13 +3165,13 @@
         <v>792931</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3186,13 @@
         <v>292410</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>155</v>
@@ -3231,13 +3201,13 @@
         <v>170378</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>437</v>
@@ -3246,13 +3216,13 @@
         <v>462788</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3237,13 @@
         <v>178277</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -3282,13 +3252,13 @@
         <v>104240</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>259</v>
@@ -3297,13 +3267,13 @@
         <v>282517</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,7 +3329,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AFD774-CCD9-448F-8DB0-332F7FB6053B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61839538-8DDD-424A-A1FD-2B20DF6B15C9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3395,7 +3365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3502,13 +3472,13 @@
         <v>27215</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3517,13 +3487,13 @@
         <v>16454</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -3532,13 +3502,13 @@
         <v>43669</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3523,13 @@
         <v>18640</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3568,13 +3538,13 @@
         <v>10240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3583,13 +3553,13 @@
         <v>28880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3574,13 @@
         <v>50370</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -3619,13 +3589,13 @@
         <v>26508</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>75</v>
@@ -3634,13 +3604,13 @@
         <v>76879</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3625,13 @@
         <v>29776</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3670,13 +3640,13 @@
         <v>12821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3685,13 +3655,13 @@
         <v>42597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3676,13 @@
         <v>17116</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3721,13 +3691,13 @@
         <v>6064</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -3736,13 +3706,13 @@
         <v>23181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3780,13 @@
         <v>150661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>118</v>
@@ -3825,13 +3795,13 @@
         <v>119141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>151</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>252</v>
@@ -3840,13 +3810,13 @@
         <v>269803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3831,13 @@
         <v>157608</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -3876,13 +3846,13 @@
         <v>108871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>257</v>
@@ -3891,13 +3861,13 @@
         <v>266480</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3882,13 @@
         <v>301917</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>217</v>
@@ -3927,13 +3897,13 @@
         <v>220006</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M12" s="7">
         <v>504</v>
@@ -3942,13 +3912,13 @@
         <v>521923</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3933,13 @@
         <v>213074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -3978,13 +3948,13 @@
         <v>145511</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
         <v>339</v>
@@ -3993,13 +3963,13 @@
         <v>358586</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +3984,13 @@
         <v>101936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -4029,13 +3999,13 @@
         <v>59245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -4044,13 +4014,13 @@
         <v>161181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,7 +4076,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4118,13 +4088,13 @@
         <v>55236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -4133,13 +4103,13 @@
         <v>67697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>162</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -4148,13 +4118,13 @@
         <v>122934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4139,13 @@
         <v>80524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -4184,13 +4154,13 @@
         <v>53458</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -4199,13 +4169,13 @@
         <v>133983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4190,13 @@
         <v>123336</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
@@ -4235,13 +4205,13 @@
         <v>98302</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M18" s="7">
         <v>212</v>
@@ -4250,13 +4220,13 @@
         <v>221638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4241,13 @@
         <v>63640</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4286,13 +4256,13 @@
         <v>57685</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -4301,13 +4271,13 @@
         <v>121324</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4292,13 @@
         <v>27871</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -4337,13 +4307,13 @@
         <v>31311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -4352,13 +4322,13 @@
         <v>59182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4396,13 @@
         <v>233113</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="H22" s="7">
         <v>196</v>
@@ -4441,13 +4411,13 @@
         <v>203292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>406</v>
@@ -4456,13 +4426,13 @@
         <v>436405</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4447,13 @@
         <v>256773</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H23" s="7">
         <v>171</v>
@@ -4492,13 +4462,13 @@
         <v>172569</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M23" s="7">
         <v>410</v>
@@ -4507,13 +4477,13 @@
         <v>429342</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>326</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4498,13 @@
         <v>475624</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H24" s="7">
         <v>341</v>
@@ -4543,13 +4513,13 @@
         <v>344816</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="M24" s="7">
         <v>791</v>
@@ -4558,13 +4528,13 @@
         <v>820439</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4549,13 @@
         <v>306490</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>207</v>
@@ -4594,13 +4564,13 @@
         <v>216017</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>491</v>
@@ -4609,13 +4579,13 @@
         <v>522507</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4600,13 @@
         <v>146924</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -4645,13 +4615,13 @@
         <v>96620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>350</v>
       </c>
       <c r="M26" s="7">
         <v>231</v>
@@ -4660,13 +4630,13 @@
         <v>243544</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,7 +4692,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79ED7D0-F892-45DA-AAD8-DBE3596B5FB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5462A5-B9AF-4A3B-832E-E9BB8ADD6876}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4758,7 +4728,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4865,13 +4835,13 @@
         <v>10352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>363</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4880,13 +4850,13 @@
         <v>3825</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4895,13 +4865,13 @@
         <v>14177</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4886,13 @@
         <v>4194</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4931,13 +4901,13 @@
         <v>4210</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4946,13 +4916,13 @@
         <v>8404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>377</v>
+        <v>149</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4937,13 @@
         <v>13215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4982,13 +4952,13 @@
         <v>5119</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>384</v>
+        <v>25</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -4997,13 +4967,13 @@
         <v>18333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +4988,13 @@
         <v>5626</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5033,13 +5003,13 @@
         <v>4441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>393</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5048,13 +5018,13 @@
         <v>10067</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5039,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5084,13 +5054,13 @@
         <v>2716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5099,13 +5069,13 @@
         <v>2716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5143,13 @@
         <v>104055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -5188,13 +5158,13 @@
         <v>56323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>398</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -5203,13 +5173,13 @@
         <v>160377</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>402</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5194,13 @@
         <v>47705</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -5239,13 +5209,13 @@
         <v>31428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>407</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -5254,13 +5224,13 @@
         <v>79133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>418</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5245,13 @@
         <v>96515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H12" s="7">
         <v>112</v>
@@ -5290,13 +5260,13 @@
         <v>79765</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M12" s="7">
         <v>201</v>
@@ -5305,13 +5275,13 @@
         <v>176279</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5296,13 @@
         <v>61653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5341,13 +5311,13 @@
         <v>59993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>138</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -5356,13 +5326,13 @@
         <v>121646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>427</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5347,13 @@
         <v>21021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>440</v>
+        <v>313</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5392,13 +5362,13 @@
         <v>23804</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -5407,13 +5377,13 @@
         <v>44825</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,7 +5439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5481,13 +5451,13 @@
         <v>60129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5496,13 +5466,13 @@
         <v>42961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5511,13 +5481,13 @@
         <v>103090</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5502,13 @@
         <v>11153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5547,13 +5517,13 @@
         <v>19572</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5562,13 +5532,13 @@
         <v>30726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>450</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5553,13 @@
         <v>33738</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -5598,13 +5568,13 @@
         <v>34831</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>466</v>
+        <v>178</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
@@ -5613,13 +5583,13 @@
         <v>68569</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>469</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5604,13 @@
         <v>21745</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>472</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5649,13 +5619,13 @@
         <v>11551</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>475</v>
+        <v>56</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -5664,13 +5634,13 @@
         <v>33296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5655,13 @@
         <v>5653</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5700,13 +5670,13 @@
         <v>5448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -5715,13 +5685,13 @@
         <v>11101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,10 +5762,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -5804,13 +5774,13 @@
         <v>103109</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="M22" s="7">
         <v>240</v>
@@ -5819,13 +5789,13 @@
         <v>277645</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>480</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5810,13 @@
         <v>63052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>482</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="H23" s="7">
         <v>76</v>
@@ -5855,13 +5825,13 @@
         <v>55211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
         <v>132</v>
@@ -5870,13 +5840,13 @@
         <v>118263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5861,13 @@
         <v>143468</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H24" s="7">
         <v>169</v>
@@ -5906,13 +5876,13 @@
         <v>119714</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="M24" s="7">
         <v>301</v>
@@ -5921,13 +5891,13 @@
         <v>263182</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>507</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5912,13 @@
         <v>89024</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>509</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>510</v>
+        <v>299</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -5957,13 +5927,13 @@
         <v>75985</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="M25" s="7">
         <v>174</v>
@@ -5972,13 +5942,13 @@
         <v>165010</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5963,13 @@
         <v>26674</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -6008,13 +5978,13 @@
         <v>31967</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>100</v>
+        <v>507</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
@@ -6023,13 +5993,13 @@
         <v>58642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,7 +6055,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6702-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5413C09-0F7A-4509-8064-D24CF65BE8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A6E5BE-CC6D-4585-9D23-A16D2597E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8B4675B-1040-4B29-87AE-AE76B3806FF5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13F0CC7A-2480-4EF6-9267-31C350E59A27}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -76,25 +76,25 @@
     <t>17,34%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
   </si>
   <si>
     <t>35,14%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>20,25%</t>
+    <t>20,09%</t>
   </si>
   <si>
     <t>30,2%</t>
@@ -106,1437 +106,1440 @@
     <t>15,93%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>18,05%</t>
   </si>
   <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
   </si>
   <si>
     <t>35,64%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
     <t>15,84%</t>
   </si>
   <si>
@@ -1553,9 +1556,6 @@
   </si>
   <si>
     <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
   </si>
   <si>
     <t>8,68%</t>
@@ -1985,7 +1985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15428D97-78C1-4AB3-8D66-B884D7F2DDE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E880DFB-B3D6-4347-8C42-4D6A3FB4331A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2636,13 +2636,13 @@
         <v>61731</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>169</v>
@@ -2651,13 +2651,13 @@
         <v>181742</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,7 +2713,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2725,13 +2725,13 @@
         <v>47659</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2740,13 +2740,13 @@
         <v>54160</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -2755,13 +2755,13 @@
         <v>101818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2776,13 @@
         <v>48439</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -2791,13 +2791,13 @@
         <v>29965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -2806,13 +2806,13 @@
         <v>78404</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2827,13 @@
         <v>114975</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -2842,13 +2842,13 @@
         <v>78501</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>171</v>
@@ -2857,13 +2857,13 @@
         <v>193476</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2878,13 @@
         <v>66108</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2893,13 +2893,13 @@
         <v>41148</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>98</v>
@@ -2908,13 +2908,13 @@
         <v>107256</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2929,13 @@
         <v>39077</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -2944,13 +2944,13 @@
         <v>29923</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>62</v>
@@ -2959,13 +2959,13 @@
         <v>69000</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,10 +3033,10 @@
         <v>247447</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>152</v>
@@ -3066,10 +3066,10 @@
         <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3084,13 @@
         <v>212644</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>139</v>
@@ -3099,13 +3099,13 @@
         <v>150724</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>334</v>
@@ -3171,7 +3171,7 @@
         <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3186,13 @@
         <v>292410</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>155</v>
@@ -3201,10 +3201,10 @@
         <v>170378</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>180</v>
@@ -3219,10 +3219,10 @@
         <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3237,13 @@
         <v>178277</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -3252,13 +3252,13 @@
         <v>104240</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>259</v>
@@ -3267,13 +3267,13 @@
         <v>282517</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,7 +3329,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61839538-8DDD-424A-A1FD-2B20DF6B15C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A5EE9-0CF5-4D7B-993C-D8185D39CF27}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3365,7 +3365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3472,13 +3472,13 @@
         <v>27215</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3487,13 +3487,13 @@
         <v>16454</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>42</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -3502,13 +3502,13 @@
         <v>43669</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3523,13 @@
         <v>18640</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3538,13 +3538,13 @@
         <v>10240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3553,13 +3553,13 @@
         <v>28880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3574,13 @@
         <v>50370</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -3589,13 +3589,13 @@
         <v>26508</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>75</v>
@@ -3604,13 +3604,13 @@
         <v>76879</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3625,13 @@
         <v>29776</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3640,13 +3640,13 @@
         <v>12821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3655,13 +3655,13 @@
         <v>42597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3676,13 @@
         <v>17116</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3691,13 +3691,13 @@
         <v>6064</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -3706,13 +3706,13 @@
         <v>23181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3780,13 @@
         <v>150661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>118</v>
@@ -3795,13 +3795,13 @@
         <v>119141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>252</v>
@@ -3810,13 +3810,13 @@
         <v>269803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3831,13 @@
         <v>157608</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -3846,13 +3846,13 @@
         <v>108871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M11" s="7">
         <v>257</v>
@@ -3861,13 +3861,13 @@
         <v>266480</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3882,13 @@
         <v>301917</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>217</v>
@@ -3897,13 +3897,13 @@
         <v>220006</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>504</v>
@@ -3912,13 +3912,13 @@
         <v>521923</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3933,13 @@
         <v>213074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -3948,13 +3948,13 @@
         <v>145511</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>339</v>
@@ -3963,13 +3963,13 @@
         <v>358586</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3984,13 @@
         <v>101936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -3999,13 +3999,13 @@
         <v>59245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>48</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -4014,13 +4014,13 @@
         <v>161181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,7 +4076,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4088,13 +4088,13 @@
         <v>55236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -4103,13 +4103,13 @@
         <v>67697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -4118,13 +4118,13 @@
         <v>122934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4139,13 @@
         <v>80524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -4154,13 +4154,13 @@
         <v>53458</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -4169,13 +4169,13 @@
         <v>133983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4190,13 @@
         <v>123336</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
@@ -4205,13 +4205,13 @@
         <v>98302</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
         <v>212</v>
@@ -4220,13 +4220,13 @@
         <v>221638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4241,13 @@
         <v>63640</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4256,13 +4256,13 @@
         <v>57685</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -4271,13 +4271,13 @@
         <v>121324</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4292,13 @@
         <v>27871</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -4307,13 +4307,13 @@
         <v>31311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -4322,13 +4322,13 @@
         <v>59182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4396,13 @@
         <v>233113</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>315</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>196</v>
@@ -4411,13 +4411,13 @@
         <v>203292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>406</v>
@@ -4426,13 +4426,13 @@
         <v>436405</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>318</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4447,13 @@
         <v>256773</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>322</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>171</v>
@@ -4465,10 +4465,10 @@
         <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>323</v>
+        <v>71</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M23" s="7">
         <v>410</v>
@@ -4477,13 +4477,13 @@
         <v>429342</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4498,13 @@
         <v>475624</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>330</v>
+        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>341</v>
@@ -4519,7 +4519,7 @@
         <v>332</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>333</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>791</v>
@@ -4528,13 +4528,13 @@
         <v>820439</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4549,13 @@
         <v>306490</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>207</v>
@@ -4564,13 +4564,13 @@
         <v>216017</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>491</v>
@@ -4579,13 +4579,13 @@
         <v>522507</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,10 +4633,10 @@
         <v>351</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,7 +4692,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5462A5-B9AF-4A3B-832E-E9BB8ADD6876}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73846F63-EE96-4469-B971-AA7A31CBF76E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4728,7 +4728,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4835,10 +4835,10 @@
         <v>10352</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>356</v>
@@ -4901,13 +4901,13 @@
         <v>4210</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4916,10 +4916,10 @@
         <v>8404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>369</v>
@@ -4955,10 +4955,10 @@
         <v>373</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>25</v>
+        <v>374</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -4967,13 +4967,13 @@
         <v>18333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,10 +4988,10 @@
         <v>5626</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>380</v>
@@ -5006,7 +5006,7 @@
         <v>381</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>382</v>
@@ -5200,7 +5200,7 @@
         <v>405</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>406</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -5209,13 +5209,13 @@
         <v>31428</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -5224,7 +5224,7 @@
         <v>79133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>163</v>
+        <v>409</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>410</v>
@@ -5311,13 +5311,13 @@
         <v>59993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>138</v>
+        <v>424</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -5326,13 +5326,13 @@
         <v>121646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5347,13 @@
         <v>21021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>109</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5362,13 +5362,13 @@
         <v>23804</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -5377,13 +5377,13 @@
         <v>44825</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,7 +5439,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5451,13 +5451,13 @@
         <v>60129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5466,13 +5466,13 @@
         <v>42961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5481,13 +5481,13 @@
         <v>103090</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5502,13 @@
         <v>11153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>446</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5517,13 +5517,13 @@
         <v>19572</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5532,13 +5532,13 @@
         <v>30726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5553,13 @@
         <v>33738</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -5568,13 +5568,13 @@
         <v>34831</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>178</v>
+        <v>458</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
@@ -5583,13 +5583,13 @@
         <v>68569</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>115</v>
+        <v>461</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,10 +5604,10 @@
         <v>21745</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>423</v>
@@ -5619,13 +5619,13 @@
         <v>11551</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -5634,13 +5634,13 @@
         <v>33296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5655,13 @@
         <v>5653</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5670,13 +5670,13 @@
         <v>5448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>470</v>
+        <v>22</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -5685,13 +5685,13 @@
         <v>11101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,10 +5762,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -5774,13 +5774,13 @@
         <v>103109</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>478</v>
+        <v>330</v>
       </c>
       <c r="M22" s="7">
         <v>240</v>
@@ -5789,13 +5789,13 @@
         <v>277645</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5810,13 @@
         <v>63052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>25</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H23" s="7">
         <v>76</v>
@@ -5825,13 +5825,13 @@
         <v>55211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="M23" s="7">
         <v>132</v>
@@ -5840,13 +5840,13 @@
         <v>118263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>192</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5861,13 @@
         <v>143468</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>491</v>
+        <v>251</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H24" s="7">
         <v>169</v>
@@ -5876,13 +5876,13 @@
         <v>119714</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M24" s="7">
         <v>301</v>
@@ -5891,13 +5891,13 @@
         <v>263182</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>496</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>497</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,10 +5915,10 @@
         <v>498</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -5927,13 +5927,13 @@
         <v>75985</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M25" s="7">
         <v>174</v>
@@ -5942,13 +5942,13 @@
         <v>165010</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,10 +5963,10 @@
         <v>26674</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>505</v>
+        <v>232</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>506</v>
@@ -5984,7 +5984,7 @@
         <v>508</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6702-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9A6E5BE-CC6D-4585-9D23-A16D2597E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36ED2CE2-774C-41C1-B990-B8A2D05426B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13F0CC7A-2480-4EF6-9267-31C350E59A27}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ADC3F9A1-C016-468E-9095-3848CDFB89BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="522">
   <si>
     <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>17,34%</t>
   </si>
   <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
   </si>
   <si>
     <t>35,14%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -106,1474 +106,1504 @@
     <t>15,93%</t>
   </si>
   <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
     <t>11,41%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
   </si>
   <si>
     <t>27,71%</t>
   </si>
   <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>21,85%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>4,83%</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +2015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E880DFB-B3D6-4347-8C42-4D6A3FB4331A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8992EF5-AD38-40EA-8862-A46618DB1916}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2435,10 +2465,10 @@
         <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>257</v>
@@ -2447,13 +2477,13 @@
         <v>275637</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2498,13 @@
         <v>134898</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -2483,13 +2513,13 @@
         <v>95491</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -2498,13 +2528,13 @@
         <v>230389</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2549,13 @@
         <v>301674</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>181</v>
@@ -2534,13 +2564,13 @@
         <v>191061</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>473</v>
@@ -2549,13 +2579,13 @@
         <v>492735</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,13 +2600,13 @@
         <v>189830</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
@@ -2585,13 +2615,13 @@
         <v>115863</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>291</v>
@@ -2600,13 +2630,13 @@
         <v>305694</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2651,13 @@
         <v>120011</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -2636,13 +2666,13 @@
         <v>61731</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>169</v>
@@ -2651,13 +2681,13 @@
         <v>181742</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,7 +2743,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2725,13 +2755,13 @@
         <v>47659</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -2740,13 +2770,13 @@
         <v>54160</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -2755,13 +2785,13 @@
         <v>101818</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2806,13 @@
         <v>48439</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -2791,13 +2821,13 @@
         <v>29965</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>71</v>
@@ -2806,13 +2836,13 @@
         <v>78404</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2857,13 @@
         <v>114975</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -2842,13 +2872,13 @@
         <v>78501</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>171</v>
@@ -2857,13 +2887,13 @@
         <v>193476</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2908,13 @@
         <v>66108</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2893,13 +2923,13 @@
         <v>41148</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>98</v>
@@ -2908,13 +2938,13 @@
         <v>107256</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2959,13 @@
         <v>39077</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -3036,10 +3066,10 @@
         <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>194</v>
@@ -3048,13 +3078,13 @@
         <v>211094</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>426</v>
@@ -3063,13 +3093,13 @@
         <v>458541</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3114,13 @@
         <v>212644</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>139</v>
@@ -3099,13 +3129,13 @@
         <v>150724</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>334</v>
@@ -3114,13 +3144,13 @@
         <v>363369</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3165,13 @@
         <v>483796</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>289</v>
@@ -3150,13 +3180,13 @@
         <v>309136</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>746</v>
@@ -3165,13 +3195,13 @@
         <v>792931</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3216,13 @@
         <v>292410</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>155</v>
@@ -3201,13 +3231,13 @@
         <v>170378</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>437</v>
@@ -3216,13 +3246,13 @@
         <v>462788</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3267,13 @@
         <v>178277</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>96</v>
@@ -3252,13 +3282,13 @@
         <v>104240</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>259</v>
@@ -3267,13 +3297,13 @@
         <v>282517</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,7 +3359,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3348,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A5EE9-0CF5-4D7B-993C-D8185D39CF27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B539829-35B9-4D23-963E-A01BCE677841}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3365,7 +3395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3472,13 +3502,13 @@
         <v>27215</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -3487,13 +3517,13 @@
         <v>16454</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>41</v>
@@ -3502,13 +3532,13 @@
         <v>43669</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3553,13 @@
         <v>18640</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3538,13 +3568,13 @@
         <v>10240</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3553,13 +3583,13 @@
         <v>28880</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3604,13 @@
         <v>50370</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -3589,13 +3619,13 @@
         <v>26508</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>75</v>
@@ -3604,13 +3634,13 @@
         <v>76879</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3655,13 @@
         <v>29776</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -3640,13 +3670,13 @@
         <v>12821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -3655,13 +3685,13 @@
         <v>42597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3706,13 @@
         <v>17116</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3691,13 +3721,13 @@
         <v>6064</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -3706,13 +3736,13 @@
         <v>23181</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3810,13 @@
         <v>150661</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>118</v>
@@ -3795,13 +3825,13 @@
         <v>119141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>252</v>
@@ -3810,13 +3840,13 @@
         <v>269803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3861,13 @@
         <v>157608</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -3846,13 +3876,13 @@
         <v>108871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>257</v>
@@ -3861,13 +3891,13 @@
         <v>266480</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3912,13 @@
         <v>301917</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>217</v>
@@ -3897,13 +3927,13 @@
         <v>220006</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>504</v>
@@ -3912,13 +3942,13 @@
         <v>521923</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3963,13 @@
         <v>213074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -3948,13 +3978,13 @@
         <v>145511</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>339</v>
@@ -3963,13 +3993,13 @@
         <v>358586</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +4014,13 @@
         <v>101936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -3999,13 +4029,13 @@
         <v>59245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -4014,13 +4044,13 @@
         <v>161181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,7 +4106,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4088,13 +4118,13 @@
         <v>55236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -4103,13 +4133,13 @@
         <v>67697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>113</v>
@@ -4118,13 +4148,13 @@
         <v>122934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4169,13 @@
         <v>80524</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -4154,13 +4184,13 @@
         <v>53458</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>126</v>
@@ -4169,13 +4199,13 @@
         <v>133983</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4220,13 @@
         <v>123336</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>97</v>
@@ -4205,13 +4235,13 @@
         <v>98302</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>212</v>
@@ -4220,13 +4250,13 @@
         <v>221638</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>85</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4271,13 @@
         <v>63640</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>56</v>
@@ -4256,13 +4286,13 @@
         <v>57685</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -4271,13 +4301,13 @@
         <v>121324</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4322,13 @@
         <v>27871</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -4307,13 +4337,13 @@
         <v>31311</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>58</v>
@@ -4322,13 +4352,13 @@
         <v>59182</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4426,13 @@
         <v>233113</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>196</v>
@@ -4411,13 +4441,13 @@
         <v>203292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>406</v>
@@ -4426,13 +4456,13 @@
         <v>436405</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>122</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4477,13 @@
         <v>256773</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
         <v>171</v>
@@ -4462,13 +4492,13 @@
         <v>172569</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>410</v>
@@ -4477,13 +4507,13 @@
         <v>429342</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>327</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4528,13 @@
         <v>475624</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>341</v>
@@ -4513,13 +4543,13 @@
         <v>344816</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
         <v>791</v>
@@ -4528,13 +4558,13 @@
         <v>820439</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4579,13 @@
         <v>306490</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="H25" s="7">
         <v>207</v>
@@ -4564,13 +4594,13 @@
         <v>216017</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
         <v>491</v>
@@ -4579,13 +4609,13 @@
         <v>522507</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4630,13 @@
         <v>146924</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -4615,13 +4645,13 @@
         <v>96620</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>231</v>
@@ -4630,13 +4660,13 @@
         <v>243544</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,7 +4722,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73846F63-EE96-4469-B971-AA7A31CBF76E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD37B0B-F33C-416B-88EE-C7D2BF8CEF15}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4728,7 +4758,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4835,13 +4865,13 @@
         <v>10352</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4850,13 +4880,13 @@
         <v>3825</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4865,13 +4895,13 @@
         <v>14177</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4916,13 @@
         <v>4194</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -4901,13 +4931,13 @@
         <v>4210</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>35</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4916,13 +4946,13 @@
         <v>8404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>377</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4967,13 @@
         <v>13215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4952,13 +4982,13 @@
         <v>5119</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -4967,13 +4997,13 @@
         <v>18333</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5018,13 @@
         <v>5626</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5003,13 +5033,13 @@
         <v>4441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>393</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5018,13 +5048,13 @@
         <v>10067</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5069,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5054,13 +5084,13 @@
         <v>2716</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -5069,13 +5099,13 @@
         <v>2716</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5173,13 @@
         <v>104055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -5158,13 +5188,13 @@
         <v>56323</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>398</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
@@ -5173,13 +5203,13 @@
         <v>160377</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5224,13 @@
         <v>47705</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>415</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -5209,13 +5239,13 @@
         <v>31428</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>406</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
@@ -5224,13 +5254,13 @@
         <v>79133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5275,13 @@
         <v>96515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H12" s="7">
         <v>112</v>
@@ -5260,13 +5290,13 @@
         <v>79765</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="M12" s="7">
         <v>201</v>
@@ -5275,13 +5305,13 @@
         <v>176279</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5326,13 @@
         <v>61653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -5311,13 +5341,13 @@
         <v>59993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
@@ -5326,13 +5356,13 @@
         <v>121646</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>428</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,13 +5377,13 @@
         <v>21021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>109</v>
+        <v>440</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
@@ -5362,13 +5392,13 @@
         <v>23804</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -5377,13 +5407,13 @@
         <v>44825</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,7 +5469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5451,13 +5481,13 @@
         <v>60129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>439</v>
+        <v>36</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5466,13 +5496,13 @@
         <v>42961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -5481,13 +5511,13 @@
         <v>103090</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5502,13 +5532,13 @@
         <v>11153</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -5517,13 +5547,13 @@
         <v>19572</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -5532,13 +5562,13 @@
         <v>30726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>453</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5583,13 @@
         <v>33738</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -5568,13 +5598,13 @@
         <v>34831</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
@@ -5583,13 +5613,13 @@
         <v>68569</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>462</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5604,13 +5634,13 @@
         <v>21745</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -5619,13 +5649,13 @@
         <v>11551</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>150</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
@@ -5634,13 +5664,13 @@
         <v>33296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>468</v>
+        <v>357</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>469</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5685,13 @@
         <v>5653</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -5670,13 +5700,13 @@
         <v>5448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>22</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -5685,13 +5715,13 @@
         <v>11101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,10 +5792,10 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -5774,13 +5804,13 @@
         <v>103109</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>240</v>
@@ -5789,13 +5819,13 @@
         <v>277645</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>483</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>484</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,13 +5840,13 @@
         <v>63052</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>492</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>485</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>76</v>
@@ -5825,13 +5855,13 @@
         <v>55211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>132</v>
@@ -5840,13 +5870,13 @@
         <v>118263</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>192</v>
+        <v>496</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5891,13 @@
         <v>143468</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="H24" s="7">
         <v>169</v>
@@ -5876,13 +5906,13 @@
         <v>119714</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M24" s="7">
         <v>301</v>
@@ -5891,13 +5921,13 @@
         <v>263182</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>505</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>333</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5942,13 @@
         <v>89024</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>148</v>
+        <v>509</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
@@ -5927,13 +5957,13 @@
         <v>75985</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="M25" s="7">
         <v>174</v>
@@ -5942,13 +5972,13 @@
         <v>165010</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5993,13 @@
         <v>26674</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>517</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -5978,13 +6008,13 @@
         <v>31967</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>507</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>278</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
@@ -5993,13 +6023,13 @@
         <v>58642</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>511</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,7 +6085,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6702-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36ED2CE2-774C-41C1-B990-B8A2D05426B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F60B9B8E-6AD7-48E9-A1AE-A41656B40963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ADC3F9A1-C016-468E-9095-3848CDFB89BE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8B27BD09-5145-4260-80F9-8862E549DB48}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="528">
   <si>
     <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -1126,484 +1126,502 @@
     <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
   </si>
   <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>48,73%</t>
+    <t>48,49%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>7,6%</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8992EF5-AD38-40EA-8862-A46618DB1916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD8C972-65CE-4FC8-B964-556B900755B2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3378,7 +3396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B539829-35B9-4D23-963E-A01BCE677841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F397901B-8AF4-46DA-BBA6-4FB193AC5DD9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4504,7 +4522,7 @@
         <v>410</v>
       </c>
       <c r="N23" s="7">
-        <v>429342</v>
+        <v>429343</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>335</v>
@@ -4708,7 +4726,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4741,7 +4759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD37B0B-F33C-416B-88EE-C7D2BF8CEF15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C063BA2E-0074-49BE-9C02-5215A3C454CB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4862,7 +4880,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>10352</v>
+        <v>10099</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>362</v>
@@ -4877,31 +4895,31 @@
         <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>3825</v>
+        <v>3462</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>14177</v>
+        <v>13561</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,46 +4931,46 @@
         <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>4194</v>
+        <v>3817</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>4210</v>
+        <v>3737</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>8404</v>
+        <v>7553</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,46 +4982,46 @@
         <v>12</v>
       </c>
       <c r="D6" s="7">
-        <v>13215</v>
+        <v>13790</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>5119</v>
+        <v>4755</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
       </c>
       <c r="N6" s="7">
-        <v>18333</v>
+        <v>18546</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,46 +5033,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>5626</v>
+        <v>5236</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>4441</v>
+        <v>3793</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>392</v>
+        <v>69</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>10067</v>
+        <v>9029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,43 +5087,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>2716</v>
+        <v>2456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>2716</v>
+        <v>2456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,7 +5135,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>33387</v>
+        <v>32942</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -5132,7 +5150,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>20311</v>
+        <v>18203</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5147,7 +5165,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>53698</v>
+        <v>51145</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5170,46 +5188,46 @@
         <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>104055</v>
+        <v>293465</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>56323</v>
+        <v>51437</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>406</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>409</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>122</v>
       </c>
       <c r="N10" s="7">
-        <v>160377</v>
+        <v>344901</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,46 +5239,46 @@
         <v>41</v>
       </c>
       <c r="D11" s="7">
-        <v>47705</v>
+        <v>48533</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
       </c>
       <c r="I11" s="7">
-        <v>31428</v>
+        <v>28836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M11" s="7">
         <v>84</v>
       </c>
       <c r="N11" s="7">
-        <v>79133</v>
+        <v>77368</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>420</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,46 +5290,46 @@
         <v>89</v>
       </c>
       <c r="D12" s="7">
-        <v>96515</v>
+        <v>94256</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>421</v>
+        <v>213</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H12" s="7">
         <v>112</v>
       </c>
       <c r="I12" s="7">
-        <v>79765</v>
+        <v>73356</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M12" s="7">
         <v>201</v>
       </c>
       <c r="N12" s="7">
-        <v>176279</v>
+        <v>167612</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,46 +5341,46 @@
         <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>61653</v>
+        <v>56132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
       </c>
       <c r="I13" s="7">
-        <v>59993</v>
+        <v>53949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M13" s="7">
         <v>127</v>
       </c>
       <c r="N13" s="7">
-        <v>121646</v>
+        <v>110081</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>437</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,46 +5392,46 @@
         <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>21021</v>
+        <v>19419</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>23804</v>
+        <v>21629</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
       </c>
       <c r="N14" s="7">
-        <v>44825</v>
+        <v>41048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,7 +5443,7 @@
         <v>246</v>
       </c>
       <c r="D15" s="7">
-        <v>330948</v>
+        <v>511804</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5440,7 +5458,7 @@
         <v>331</v>
       </c>
       <c r="I15" s="7">
-        <v>251314</v>
+        <v>229206</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5455,7 +5473,7 @@
         <v>577</v>
       </c>
       <c r="N15" s="7">
-        <v>582261</v>
+        <v>741010</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5478,46 +5496,46 @@
         <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>60129</v>
+        <v>57247</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
       </c>
       <c r="I16" s="7">
-        <v>42961</v>
+        <v>38969</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
       </c>
       <c r="N16" s="7">
-        <v>103090</v>
+        <v>96216</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,46 +5547,46 @@
         <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>11153</v>
+        <v>10540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>457</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>19572</v>
+        <v>18123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
       </c>
       <c r="N17" s="7">
-        <v>30726</v>
+        <v>28663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>459</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,46 +5598,46 @@
         <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>33738</v>
+        <v>32585</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>34831</v>
+        <v>32864</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="M18" s="7">
         <v>78</v>
       </c>
       <c r="N18" s="7">
-        <v>68569</v>
+        <v>65449</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,46 +5649,46 @@
         <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>21745</v>
+        <v>19811</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>11551</v>
+        <v>10826</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>35</v>
       </c>
       <c r="N19" s="7">
-        <v>33296</v>
+        <v>30637</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>357</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,46 +5700,46 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>5653</v>
+        <v>5032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>5448</v>
+        <v>4919</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
       </c>
       <c r="N20" s="7">
-        <v>11101</v>
+        <v>9951</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,7 +5751,7 @@
         <v>116</v>
       </c>
       <c r="D21" s="7">
-        <v>132419</v>
+        <v>125215</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5748,7 +5766,7 @@
         <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>114363</v>
+        <v>105701</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5763,7 +5781,7 @@
         <v>262</v>
       </c>
       <c r="N21" s="7">
-        <v>246782</v>
+        <v>230916</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5786,46 +5804,46 @@
         <v>108</v>
       </c>
       <c r="D22" s="7">
-        <v>174536</v>
+        <v>360810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>14</v>
+        <v>487</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
       </c>
       <c r="I22" s="7">
-        <v>103109</v>
+        <v>93867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M22" s="7">
         <v>240</v>
       </c>
       <c r="N22" s="7">
-        <v>277645</v>
+        <v>454678</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>494</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>385</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,46 +5855,46 @@
         <v>56</v>
       </c>
       <c r="D23" s="7">
-        <v>63052</v>
+        <v>62889</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>497</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>76</v>
       </c>
       <c r="I23" s="7">
-        <v>55211</v>
+        <v>50695</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>77</v>
+        <v>501</v>
       </c>
       <c r="M23" s="7">
         <v>132</v>
       </c>
       <c r="N23" s="7">
-        <v>118263</v>
+        <v>113585</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,46 +5906,46 @@
         <v>132</v>
       </c>
       <c r="D24" s="7">
-        <v>143468</v>
+        <v>140631</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H24" s="7">
         <v>169</v>
       </c>
       <c r="I24" s="7">
-        <v>119714</v>
+        <v>110975</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="M24" s="7">
         <v>301</v>
       </c>
       <c r="N24" s="7">
-        <v>263182</v>
+        <v>251606</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,46 +5957,46 @@
         <v>79</v>
       </c>
       <c r="D25" s="7">
-        <v>89024</v>
+        <v>81179</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>508</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="H25" s="7">
         <v>95</v>
       </c>
       <c r="I25" s="7">
-        <v>75985</v>
+        <v>68568</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M25" s="7">
         <v>174</v>
       </c>
       <c r="N25" s="7">
-        <v>165010</v>
+        <v>149747</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>513</v>
+        <v>42</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,46 +6008,46 @@
         <v>20</v>
       </c>
       <c r="D26" s="7">
-        <v>26674</v>
+        <v>24451</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
       </c>
       <c r="I26" s="7">
-        <v>31967</v>
+        <v>29004</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>100</v>
+        <v>523</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>278</v>
+        <v>402</v>
       </c>
       <c r="M26" s="7">
         <v>58</v>
       </c>
       <c r="N26" s="7">
-        <v>58642</v>
+        <v>53455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>54</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,7 +6059,7 @@
         <v>395</v>
       </c>
       <c r="D27" s="7">
-        <v>496754</v>
+        <v>669961</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6056,7 +6074,7 @@
         <v>510</v>
       </c>
       <c r="I27" s="7">
-        <v>385987</v>
+        <v>353110</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6071,7 +6089,7 @@
         <v>905</v>
       </c>
       <c r="N27" s="7">
-        <v>882742</v>
+        <v>1023071</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
